--- a/rekap pembukuan pajak 2023/4-STOCK 2023.xlsx
+++ b/rekap pembukuan pajak 2023/4-STOCK 2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="1" r:id="rId1"/>
@@ -3730,21 +3730,6 @@
     <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3757,14 +3742,29 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4060,10 +4060,10 @@
   <dimension ref="A1:U1246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C679" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C658" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D689" sqref="D689"/>
+      <selection pane="bottomRight" activeCell="E660" sqref="E660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4097,60 +4097,60 @@
       </c>
     </row>
     <row r="2" spans="1:19" s="10" customFormat="1">
-      <c r="A2" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="175" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="176" t="s">
+      <c r="A2" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="176"/>
-      <c r="E2" s="177" t="s">
+      <c r="D2" s="178"/>
+      <c r="E2" s="185" t="s">
         <v>648</v>
       </c>
-      <c r="F2" s="178" t="s">
+      <c r="F2" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="184" t="s">
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="179" t="s">
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="180"/>
-      <c r="P2" s="176" t="s">
+      <c r="O2" s="175"/>
+      <c r="P2" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="183" t="s">
+      <c r="Q2" s="178"/>
+      <c r="R2" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="179" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="10" customFormat="1">
-      <c r="A3" s="174"/>
-      <c r="B3" s="175"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="178" t="s">
+      <c r="A3" s="184"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178" t="s">
+      <c r="G3" s="180"/>
+      <c r="H3" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="178"/>
+      <c r="I3" s="180"/>
       <c r="J3" s="11" t="s">
         <v>11</v>
       </c>
@@ -4163,12 +4163,12 @@
       <c r="M3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="181"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="183"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="178"/>
+      <c r="Q3" s="178"/>
+      <c r="R3" s="179"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:19" ht="15.75">
       <c r="A4" s="14" t="s">
@@ -36482,7 +36482,7 @@
         <v>40</v>
       </c>
       <c r="E658" s="98">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F658" s="99">
         <v>1</v>
@@ -36514,18 +36514,18 @@
       </c>
       <c r="P658" s="96">
         <f t="shared" si="334"/>
-        <v>576</v>
+        <v>864</v>
       </c>
       <c r="Q658" s="100" t="s">
         <v>40</v>
       </c>
       <c r="R658" s="101">
         <f t="shared" si="335"/>
-        <v>20684160</v>
+        <v>31026240</v>
       </c>
       <c r="S658" s="101">
         <f t="shared" si="338"/>
-        <v>18634378.378378376</v>
+        <v>27951567.567567565</v>
       </c>
     </row>
     <row r="659" spans="1:19" s="78" customFormat="1">
@@ -62941,6 +62941,11 @@
     <sortCondition ref="A57"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="N2:O3"/>
     <mergeCell ref="P2:Q3"/>
     <mergeCell ref="R2:R3"/>
@@ -62948,11 +62953,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J2:M2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
